--- a/data/trans_bre/P35A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-6,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-48,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-50,93%</t>
+          <t>-44,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>-70,01%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-82,98%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-92,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 10,81</t>
+          <t>-5,47; 1,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 1,43</t>
+          <t>-8,17; -0,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 3,4</t>
+          <t>-9,94; -3,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 11,49</t>
+          <t>-13,93; -3,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 530,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-81,04; 27,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,89; 42,79</t>
+          <t>-100,0; 250,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,07; 130,13</t>
+          <t>-90,66; -10,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-94,95; -48,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -62,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-6,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,33</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-47,95%</t>
+          <t>-67,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-38,96%</t>
+          <t>-59,72%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-68,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-66,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,69; -0,04</t>
+          <t>-9,54; -2,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 6,25</t>
+          <t>-10,26; -2,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -3,19</t>
+          <t>-11,07; -4,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,26; -1,28</t>
+          <t>-16,56; -6,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,95; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 48,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,78; -20,79</t>
+          <t>-85,78; -32,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,52; -4,4</t>
+          <t>-77,3; -22,33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-81,91; -51,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-82,02; -45,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-8,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,09</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-43,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-33,2%</t>
+          <t>-61,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-43,78%</t>
+          <t>-35,38%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-54,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-20,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,91; -1,05</t>
+          <t>-15,9; -3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 3,29</t>
+          <t>-8,58; 0,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,86; -0,32</t>
+          <t>-12,75; -4,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 0,33</t>
+          <t>-9,89; 2,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,68; -5,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 27,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,85; -1,04</t>
+          <t>-82,6; -32,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-70,76; 7,73</t>
+          <t>-60,95; 7,91</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-68,9; -31,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-48,46; 25,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,25</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-37,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,29%</t>
+          <t>-66,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,13%</t>
+          <t>-47,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-55,97%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -1,69</t>
+          <t>-11,78; -3,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,94</t>
+          <t>-7,65; -0,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -1,97</t>
+          <t>-13,86; -3,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,55; -12,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 16,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,43; -18,68</t>
+          <t>-83,22; -41,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,45; -10,59</t>
+          <t>-74,45; -2,78</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-73,72; -27,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-6,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,64</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-7,6</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-8,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-64,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-51,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-65,04%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-54,91%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; -4,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; -2,43</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; -5,43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,18; -5,76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-76,13; -51,16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-63,85; -29,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-74,69; -53,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-65,55; -41,72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P35A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,22</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,88</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-44,4%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-70,01%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-82,98%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-92,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-1.374214451537151</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.462090330589366</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.512371785581851</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-7.848576525252835</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.4518885020790974</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.7185473027513808</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.8411433699216559</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.9224702694610318</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 1,53</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; -0,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; -3,04</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,93; -3,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 250,23</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-90,66; -10,55</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-94,95; -48,62</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -62,71</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.621548984076214</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.49203219975656</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.4499084183346</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.74367088952592</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.9111804560649818</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.9537545494080845</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.554981709963017</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-1.049421240588193</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-3.219733346291703</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-3.454638748413826</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>2.353946149247759</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.1538103964620303</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.545431168592577</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.6534147710270003</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-7,67</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,98</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-67,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-59,72%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-68,81%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-66,81%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,54; -2,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; -2,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; -4,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-16,56; -6,16</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-85,78; -32,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-77,3; -22,33</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-81,91; -51,09</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-82,02; -45,15</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-5.173175994114052</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.097685800830513</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-7.695786460164269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-10.99623517519254</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.6272015789333206</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.6076674969594485</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.6881146476082896</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.6648718733542279</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,29</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-61,27%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-35,38%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-54,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-20,56%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.007161283882665</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.20391066206255</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.16911930484918</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-16.92236245721903</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.8349016298541959</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.780131652273644</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.8205969878702981</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.8186883186132045</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; -3,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 0,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,75; -4,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 2,65</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-82,6; -32,09</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-60,95; 7,91</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-68,9; -31,99</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-48,46; 25,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.563609953212892</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-2.356007838354981</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-4.693661583026333</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-6.161014062805148</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>-0.2146257622759331</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.2247277025335165</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.5111026487917869</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.4436373332704897</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,68</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-8,67</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-66,28%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-47,66%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-55,97%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-7.801905733050546</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.911820691428811</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.537946076334139</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.23036431590916</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.5889682172689134</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3647520765987813</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.5532543282866497</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2027297244789144</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,78; -3,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; -0,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,86; -3,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-83,22; -41,23</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-74,45; -2,78</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-73,72; -27,15</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.91125288324338</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.605535834286316</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.9364602192568</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.932154120279906</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8083981872633242</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6150432027194659</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.700594050751669</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4869455420713644</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.832385519967635</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2841631856117537</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-4.448047061165382</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.762882661943506</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>-0.2755507163848369</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.05169935770985313</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.3474914006179845</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2608346947815012</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,64</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-8,22</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-64,78%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-51,24%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-65,04%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-54,91%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; -4,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; -2,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,02; -5,43</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,18; -5,76</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-76,13; -51,16</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-63,85; -29,75</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-74,69; -53,32</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-65,55; -41,72</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5.599556142000373</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.111747305195344</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-7.768818815009892</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-8.042380591415615</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.6060582828273813</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.5384082908712569</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.6593392229162832</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.5434778172717282</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.843684581254495</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.477584236566375</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-10.17906563719417</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.21457233271671</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.7596540009242398</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6845465395425163</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.7550229593093671</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.6587504344634733</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-3.14862329547771</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-2.891578809038549</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-5.523403286763362</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-4.792829892968198</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>-0.4026751684041518</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.3403513424678904</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.5417320872546696</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.3632885661363429</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
